--- a/data/158/MOF/TRADE/COUN/Central and Eastern Europe.xlsx
+++ b/data/158/MOF/TRADE/COUN/Central and Eastern Europe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX49"/>
+  <dimension ref="A1:TJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,19 +4538,19 @@
         <v>147001373</v>
       </c>
       <c r="SM2" t="n">
-        <v>126998139</v>
+        <v>126967984</v>
       </c>
       <c r="SN2" t="n">
-        <v>148887351</v>
+        <v>148894654</v>
       </c>
       <c r="SO2" t="n">
-        <v>172305339</v>
+        <v>172306289</v>
       </c>
       <c r="SP2" t="n">
-        <v>170773633</v>
+        <v>170772527</v>
       </c>
       <c r="SQ2" t="n">
-        <v>148687091</v>
+        <v>148687864</v>
       </c>
       <c r="SR2" t="n">
         <v>183653576</v>
@@ -4505,13 +4565,49 @@
         <v>154638773</v>
       </c>
       <c r="SV2" t="n">
-        <v>158193031</v>
+        <v>158179816</v>
       </c>
       <c r="SW2" t="n">
-        <v>173400378</v>
+        <v>173393202</v>
       </c>
       <c r="SX2" t="n">
         <v>169866855</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>146532299</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>169181648</v>
       </c>
       <c r="SM3" t="n">
-        <v>141267770</v>
+        <v>141845848</v>
       </c>
       <c r="SN3" t="n">
-        <v>154211157</v>
+        <v>154879172</v>
       </c>
       <c r="SO3" t="n">
-        <v>160191664</v>
+        <v>160838999</v>
       </c>
       <c r="SP3" t="n">
-        <v>184624635</v>
+        <v>185411775</v>
       </c>
       <c r="SQ3" t="n">
-        <v>180234039</v>
+        <v>180556350</v>
       </c>
       <c r="SR3" t="n">
-        <v>206556532</v>
+        <v>207992042</v>
       </c>
       <c r="SS3" t="n">
-        <v>197186772</v>
+        <v>197542489</v>
       </c>
       <c r="ST3" t="n">
-        <v>165077415</v>
+        <v>167065441</v>
       </c>
       <c r="SU3" t="n">
-        <v>210955418</v>
+        <v>211685493</v>
       </c>
       <c r="SV3" t="n">
-        <v>208128424</v>
+        <v>209047529</v>
       </c>
       <c r="SW3" t="n">
-        <v>289785299</v>
+        <v>290102648</v>
       </c>
       <c r="SX3" t="n">
-        <v>260679473</v>
+        <v>260275280</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>253765518</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7633,6 +7765,42 @@
       <c r="SX4" t="n">
         <v>91392</v>
       </c>
+      <c r="SY4" t="n">
+        <v>86297</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -9193,6 +9361,42 @@
       <c r="SX5" t="n">
         <v>83877</v>
       </c>
+      <c r="SY5" t="n">
+        <v>37320</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -10753,6 +10957,42 @@
       <c r="SX6" t="n">
         <v>58694</v>
       </c>
+      <c r="SY6" t="n">
+        <v>54169</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -12290,7 +12530,7 @@
         <v>172192</v>
       </c>
       <c r="SQ7" t="n">
-        <v>320206</v>
+        <v>340105</v>
       </c>
       <c r="SR7" t="n">
         <v>342676</v>
@@ -12312,6 +12552,42 @@
       </c>
       <c r="SX7" t="n">
         <v>116202</v>
+      </c>
+      <c r="SY7" t="n">
+        <v>71562</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13873,6 +14149,42 @@
       <c r="SX8" t="n">
         <v>3141171</v>
       </c>
+      <c r="SY8" t="n">
+        <v>558363</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15433,6 +15745,42 @@
       <c r="SX9" t="n">
         <v>107724</v>
       </c>
+      <c r="SY9" t="n">
+        <v>485014</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -16993,6 +17341,42 @@
       <c r="SX10" t="n">
         <v>3574280</v>
       </c>
+      <c r="SY10" t="n">
+        <v>2985577</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -18518,40 +18902,76 @@
         <v>3790383</v>
       </c>
       <c r="SM11" t="n">
-        <v>2222602</v>
+        <v>2199298</v>
       </c>
       <c r="SN11" t="n">
-        <v>4255991</v>
+        <v>4413694</v>
       </c>
       <c r="SO11" t="n">
-        <v>2665647</v>
+        <v>2933659</v>
       </c>
       <c r="SP11" t="n">
-        <v>7290926</v>
+        <v>8030084</v>
       </c>
       <c r="SQ11" t="n">
-        <v>4120110</v>
+        <v>4139187</v>
       </c>
       <c r="SR11" t="n">
-        <v>8126632</v>
+        <v>8410352</v>
       </c>
       <c r="SS11" t="n">
-        <v>6312325</v>
+        <v>6434787</v>
       </c>
       <c r="ST11" t="n">
-        <v>7085903</v>
+        <v>7379054</v>
       </c>
       <c r="SU11" t="n">
-        <v>12521740</v>
+        <v>12538981</v>
       </c>
       <c r="SV11" t="n">
-        <v>4917369</v>
+        <v>4917212</v>
       </c>
       <c r="SW11" t="n">
-        <v>8867345</v>
+        <v>8898335</v>
       </c>
       <c r="SX11" t="n">
-        <v>8441698</v>
+        <v>8315837</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>7769985</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20113,6 +20533,42 @@
       <c r="SX12" t="n">
         <v>156289</v>
       </c>
+      <c r="SY12" t="n">
+        <v>98266</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -21673,6 +22129,42 @@
       <c r="SX13" t="n">
         <v>3455</v>
       </c>
+      <c r="SY13" t="n">
+        <v>10685</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -23233,6 +23725,42 @@
       <c r="SX14" t="n">
         <v>285552</v>
       </c>
+      <c r="SY14" t="n">
+        <v>283459</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -24793,6 +25321,42 @@
       <c r="SX15" t="n">
         <v>24927</v>
       </c>
+      <c r="SY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -26353,6 +26917,42 @@
       <c r="SX16" t="n">
         <v>258540</v>
       </c>
+      <c r="SY16" t="n">
+        <v>87984</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -27913,6 +28513,42 @@
       <c r="SX17" t="n">
         <v>1807</v>
       </c>
+      <c r="SY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -29473,6 +30109,42 @@
       <c r="SX18" t="n">
         <v>2284473</v>
       </c>
+      <c r="SY18" t="n">
+        <v>753288</v>
+      </c>
+      <c r="SZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -30998,40 +31670,76 @@
         <v>171808</v>
       </c>
       <c r="SM19" t="n">
-        <v>163390</v>
+        <v>188968</v>
       </c>
       <c r="SN19" t="n">
-        <v>260632</v>
+        <v>299562</v>
       </c>
       <c r="SO19" t="n">
-        <v>396300</v>
+        <v>408985</v>
       </c>
       <c r="SP19" t="n">
-        <v>222787</v>
+        <v>205818</v>
       </c>
       <c r="SQ19" t="n">
-        <v>317026</v>
+        <v>253886</v>
       </c>
       <c r="SR19" t="n">
         <v>285486</v>
       </c>
       <c r="SS19" t="n">
-        <v>151561</v>
+        <v>132115</v>
       </c>
       <c r="ST19" t="n">
-        <v>247524</v>
+        <v>228332</v>
       </c>
       <c r="SU19" t="n">
         <v>99462</v>
       </c>
       <c r="SV19" t="n">
-        <v>265753</v>
+        <v>267150</v>
       </c>
       <c r="SW19" t="n">
         <v>161236</v>
       </c>
       <c r="SX19" t="n">
         <v>126550</v>
+      </c>
+      <c r="SY19" t="n">
+        <v>136536</v>
+      </c>
+      <c r="SZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -32558,7 +33266,7 @@
         <v>32305638</v>
       </c>
       <c r="SM20" t="n">
-        <v>25153474</v>
+        <v>25146619</v>
       </c>
       <c r="SN20" t="n">
         <v>27768114</v>
@@ -32592,6 +33300,42 @@
       </c>
       <c r="SX20" t="n">
         <v>30400871</v>
+      </c>
+      <c r="SY20" t="n">
+        <v>28355295</v>
+      </c>
+      <c r="SZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34118,40 +34862,76 @@
         <v>9214204</v>
       </c>
       <c r="SM21" t="n">
-        <v>7973360</v>
+        <v>7948385</v>
       </c>
       <c r="SN21" t="n">
-        <v>8415108</v>
+        <v>8383974</v>
       </c>
       <c r="SO21" t="n">
-        <v>9972427</v>
+        <v>9945573</v>
       </c>
       <c r="SP21" t="n">
-        <v>11347990</v>
+        <v>11346030</v>
       </c>
       <c r="SQ21" t="n">
-        <v>10079727</v>
+        <v>10074197</v>
       </c>
       <c r="SR21" t="n">
-        <v>13367950</v>
+        <v>13380885</v>
       </c>
       <c r="SS21" t="n">
-        <v>9905363</v>
+        <v>9893487</v>
       </c>
       <c r="ST21" t="n">
-        <v>10216831</v>
+        <v>10210835</v>
       </c>
       <c r="SU21" t="n">
-        <v>10538524</v>
+        <v>10544987</v>
       </c>
       <c r="SV21" t="n">
-        <v>10285566</v>
+        <v>10251921</v>
       </c>
       <c r="SW21" t="n">
-        <v>14076085</v>
+        <v>14073321</v>
       </c>
       <c r="SX21" t="n">
-        <v>12257281</v>
+        <v>12260502</v>
+      </c>
+      <c r="SY21" t="n">
+        <v>14036683</v>
+      </c>
+      <c r="SZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -35678,19 +36458,19 @@
         <v>57288857</v>
       </c>
       <c r="SM22" t="n">
-        <v>53756386</v>
+        <v>53742424</v>
       </c>
       <c r="SN22" t="n">
-        <v>62922154</v>
+        <v>62929457</v>
       </c>
       <c r="SO22" t="n">
         <v>74298714</v>
       </c>
       <c r="SP22" t="n">
-        <v>77390571</v>
+        <v>77389465</v>
       </c>
       <c r="SQ22" t="n">
-        <v>61488065</v>
+        <v>61488838</v>
       </c>
       <c r="SR22" t="n">
         <v>79497024</v>
@@ -35705,13 +36485,49 @@
         <v>68075637</v>
       </c>
       <c r="SV22" t="n">
-        <v>69403927</v>
+        <v>69390712</v>
       </c>
       <c r="SW22" t="n">
-        <v>86452469</v>
+        <v>86445293</v>
       </c>
       <c r="SX22" t="n">
         <v>78294791</v>
+      </c>
+      <c r="SY22" t="n">
+        <v>68679807</v>
+      </c>
+      <c r="SZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -37238,40 +38054,76 @@
         <v>115641458</v>
       </c>
       <c r="SM23" t="n">
-        <v>85592294</v>
+        <v>85880120</v>
       </c>
       <c r="SN23" t="n">
-        <v>99627172</v>
+        <v>99856269</v>
       </c>
       <c r="SO23" t="n">
-        <v>98612927</v>
+        <v>98931594</v>
       </c>
       <c r="SP23" t="n">
-        <v>111756707</v>
+        <v>111817766</v>
       </c>
       <c r="SQ23" t="n">
-        <v>115241969</v>
+        <v>115664635</v>
       </c>
       <c r="SR23" t="n">
-        <v>124182876</v>
+        <v>125304295</v>
       </c>
       <c r="SS23" t="n">
-        <v>132589961</v>
+        <v>132921902</v>
       </c>
       <c r="ST23" t="n">
-        <v>96242442</v>
+        <v>98019284</v>
       </c>
       <c r="SU23" t="n">
-        <v>137669628</v>
+        <v>138375938</v>
       </c>
       <c r="SV23" t="n">
-        <v>142363609</v>
+        <v>143314226</v>
       </c>
       <c r="SW23" t="n">
-        <v>207370997</v>
+        <v>207681497</v>
       </c>
       <c r="SX23" t="n">
-        <v>191855203</v>
+        <v>191100776</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>172882885</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -38833,6 +39685,42 @@
       <c r="SX24" t="n">
         <v>0</v>
       </c>
+      <c r="SY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -40393,6 +41281,42 @@
       <c r="SX25" t="n">
         <v>0</v>
       </c>
+      <c r="SY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -41953,6 +42877,42 @@
       <c r="SX26" t="n">
         <v>15215200</v>
       </c>
+      <c r="SY26" t="n">
+        <v>11799701</v>
+      </c>
+      <c r="SZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -43478,10 +44438,10 @@
         <v>9295397</v>
       </c>
       <c r="SM27" t="n">
-        <v>8690287</v>
+        <v>8692120</v>
       </c>
       <c r="SN27" t="n">
-        <v>9461956</v>
+        <v>9471194</v>
       </c>
       <c r="SO27" t="n">
         <v>9599193</v>
@@ -43493,7 +44453,7 @@
         <v>14584077</v>
       </c>
       <c r="SR27" t="n">
-        <v>12862344</v>
+        <v>12924481</v>
       </c>
       <c r="SS27" t="n">
         <v>10777636</v>
@@ -43502,7 +44462,7 @@
         <v>9942573</v>
       </c>
       <c r="SU27" t="n">
-        <v>11236433</v>
+        <v>11236503</v>
       </c>
       <c r="SV27" t="n">
         <v>8662661</v>
@@ -43511,7 +44471,43 @@
         <v>10840999</v>
       </c>
       <c r="SX27" t="n">
-        <v>11873715</v>
+        <v>11988528</v>
+      </c>
+      <c r="SY27" t="n">
+        <v>9127090</v>
+      </c>
+      <c r="SZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -45073,6 +46069,42 @@
       <c r="SX28" t="n">
         <v>36334</v>
       </c>
+      <c r="SY28" t="n">
+        <v>25902</v>
+      </c>
+      <c r="SZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -46598,25 +47630,25 @@
         <v>58761</v>
       </c>
       <c r="SM29" t="n">
-        <v>103192</v>
+        <v>103264</v>
       </c>
       <c r="SN29" t="n">
-        <v>229267</v>
+        <v>229885</v>
       </c>
       <c r="SO29" t="n">
         <v>119522</v>
       </c>
       <c r="SP29" t="n">
-        <v>173597</v>
+        <v>174592</v>
       </c>
       <c r="SQ29" t="n">
-        <v>391871</v>
+        <v>394576</v>
       </c>
       <c r="SR29" t="n">
-        <v>604070</v>
+        <v>606477</v>
       </c>
       <c r="SS29" t="n">
-        <v>263156</v>
+        <v>263787</v>
       </c>
       <c r="ST29" t="n">
         <v>216536</v>
@@ -46625,13 +47657,49 @@
         <v>487370</v>
       </c>
       <c r="SV29" t="n">
-        <v>426460</v>
+        <v>427634</v>
       </c>
       <c r="SW29" t="n">
-        <v>597272</v>
+        <v>598299</v>
       </c>
       <c r="SX29" t="n">
-        <v>297621</v>
+        <v>299480</v>
+      </c>
+      <c r="SY29" t="n">
+        <v>407239</v>
+      </c>
+      <c r="SZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -48193,6 +49261,42 @@
       <c r="SX30" t="n">
         <v>4547480</v>
       </c>
+      <c r="SY30" t="n">
+        <v>3173808</v>
+      </c>
+      <c r="SZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -49718,25 +50822,25 @@
         <v>7758985</v>
       </c>
       <c r="SM31" t="n">
-        <v>11916854</v>
+        <v>11912667</v>
       </c>
       <c r="SN31" t="n">
-        <v>7436381</v>
+        <v>7431174</v>
       </c>
       <c r="SO31" t="n">
-        <v>7037374</v>
+        <v>7026382</v>
       </c>
       <c r="SP31" t="n">
-        <v>9211181</v>
+        <v>9205916</v>
       </c>
       <c r="SQ31" t="n">
-        <v>6771838</v>
+        <v>6764872</v>
       </c>
       <c r="SR31" t="n">
-        <v>9908999</v>
+        <v>9904950</v>
       </c>
       <c r="SS31" t="n">
-        <v>9329485</v>
+        <v>9329332</v>
       </c>
       <c r="ST31" t="n">
         <v>7937885</v>
@@ -49751,7 +50855,43 @@
         <v>10946245</v>
       </c>
       <c r="SX31" t="n">
-        <v>8079348</v>
+        <v>8432901</v>
+      </c>
+      <c r="SY31" t="n">
+        <v>7076156</v>
+      </c>
+      <c r="SZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -51313,6 +52453,42 @@
       <c r="SX32" t="n">
         <v>1924797</v>
       </c>
+      <c r="SY32" t="n">
+        <v>1427424</v>
+      </c>
+      <c r="SZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -52841,7 +54017,7 @@
         <v>1100000</v>
       </c>
       <c r="SN33" t="n">
-        <v>1311715</v>
+        <v>1312658</v>
       </c>
       <c r="SO33" t="n">
         <v>1127960</v>
@@ -52871,7 +54047,43 @@
         <v>1213971</v>
       </c>
       <c r="SX33" t="n">
-        <v>1106135</v>
+        <v>1106345</v>
+      </c>
+      <c r="SY33" t="n">
+        <v>1042291</v>
+      </c>
+      <c r="SZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -54433,6 +55645,42 @@
       <c r="SX34" t="n">
         <v>2222772</v>
       </c>
+      <c r="SY34" t="n">
+        <v>1867772</v>
+      </c>
+      <c r="SZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -55961,13 +57209,13 @@
         <v>1099399</v>
       </c>
       <c r="SN35" t="n">
-        <v>1859228</v>
+        <v>1853893</v>
       </c>
       <c r="SO35" t="n">
-        <v>5170635</v>
+        <v>5166300</v>
       </c>
       <c r="SP35" t="n">
-        <v>1151221</v>
+        <v>1147667</v>
       </c>
       <c r="SQ35" t="n">
         <v>1663627</v>
@@ -55992,6 +57240,42 @@
       </c>
       <c r="SX35" t="n">
         <v>1258868</v>
+      </c>
+      <c r="SY35" t="n">
+        <v>3126069</v>
+      </c>
+      <c r="SZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -57553,6 +58837,42 @@
       <c r="SX36" t="n">
         <v>516114</v>
       </c>
+      <c r="SY36" t="n">
+        <v>393149</v>
+      </c>
+      <c r="SZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -59113,6 +60433,42 @@
       <c r="SX37" t="n">
         <v>1153664</v>
       </c>
+      <c r="SY37" t="n">
+        <v>1646674</v>
+      </c>
+      <c r="SZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -60673,6 +62029,42 @@
       <c r="SX38" t="n">
         <v>927609</v>
       </c>
+      <c r="SY38" t="n">
+        <v>884422</v>
+      </c>
+      <c r="SZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -62198,28 +63590,28 @@
         <v>1053189</v>
       </c>
       <c r="SM39" t="n">
-        <v>1011860</v>
+        <v>1009554</v>
       </c>
       <c r="SN39" t="n">
-        <v>1330111</v>
+        <v>1340719</v>
       </c>
       <c r="SO39" t="n">
-        <v>1425595</v>
+        <v>1425768</v>
       </c>
       <c r="SP39" t="n">
-        <v>1083919</v>
+        <v>1101606</v>
       </c>
       <c r="SQ39" t="n">
-        <v>1093188</v>
+        <v>1088025</v>
       </c>
       <c r="SR39" t="n">
-        <v>1215784</v>
+        <v>1211546</v>
       </c>
       <c r="SS39" t="n">
-        <v>1161816</v>
+        <v>1156573</v>
       </c>
       <c r="ST39" t="n">
-        <v>1297748</v>
+        <v>1287945</v>
       </c>
       <c r="SU39" t="n">
         <v>1009500</v>
@@ -62228,10 +63620,46 @@
         <v>1353540</v>
       </c>
       <c r="SW39" t="n">
-        <v>1274048</v>
+        <v>1252056</v>
       </c>
       <c r="SX39" t="n">
         <v>1196326</v>
+      </c>
+      <c r="SY39" t="n">
+        <v>1548009</v>
+      </c>
+      <c r="SZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -63793,6 +65221,42 @@
       <c r="SX40" t="n">
         <v>5252415</v>
       </c>
+      <c r="SY40" t="n">
+        <v>3416541</v>
+      </c>
+      <c r="SZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -65318,16 +66782,16 @@
         <v>4986224</v>
       </c>
       <c r="SM41" t="n">
-        <v>6592767</v>
+        <v>6581403</v>
       </c>
       <c r="SN41" t="n">
         <v>3338200</v>
       </c>
       <c r="SO41" t="n">
-        <v>5887843</v>
+        <v>5972106</v>
       </c>
       <c r="SP41" t="n">
-        <v>8641514</v>
+        <v>8631092</v>
       </c>
       <c r="SQ41" t="n">
         <v>4691287</v>
@@ -65352,6 +66816,42 @@
       </c>
       <c r="SX41" t="n">
         <v>3163480</v>
+      </c>
+      <c r="SY41" t="n">
+        <v>12619431</v>
+      </c>
+      <c r="SZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -66913,6 +68413,42 @@
       <c r="SX42" t="n">
         <v>212450</v>
       </c>
+      <c r="SY42" t="n">
+        <v>318699</v>
+      </c>
+      <c r="SZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -68459,7 +69995,7 @@
         <v>222859</v>
       </c>
       <c r="ST43" t="n">
-        <v>328949</v>
+        <v>316667</v>
       </c>
       <c r="SU43" t="n">
         <v>108410</v>
@@ -68472,6 +70008,42 @@
       </c>
       <c r="SX43" t="n">
         <v>141102</v>
+      </c>
+      <c r="SY43" t="n">
+        <v>189002</v>
+      </c>
+      <c r="SZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -70033,6 +71605,42 @@
       <c r="SX44" t="n">
         <v>431980</v>
       </c>
+      <c r="SY44" t="n">
+        <v>26609</v>
+      </c>
+      <c r="SZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -71591,7 +73199,43 @@
         <v>231544</v>
       </c>
       <c r="SX45" t="n">
-        <v>134015</v>
+        <v>134183</v>
+      </c>
+      <c r="SY45" t="n">
+        <v>143638</v>
+      </c>
+      <c r="SZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -73118,13 +74762,13 @@
         <v>19281550</v>
       </c>
       <c r="SM46" t="n">
-        <v>16885417</v>
+        <v>16876079</v>
       </c>
       <c r="SN46" t="n">
         <v>16577045</v>
       </c>
       <c r="SO46" t="n">
-        <v>18807879</v>
+        <v>18808829</v>
       </c>
       <c r="SP46" t="n">
         <v>18986226</v>
@@ -73152,6 +74796,42 @@
       </c>
       <c r="SX46" t="n">
         <v>18517425</v>
+      </c>
+      <c r="SY46" t="n">
+        <v>19731388</v>
+      </c>
+      <c r="SZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -74678,40 +76358,76 @@
         <v>9208262</v>
       </c>
       <c r="SM47" t="n">
-        <v>10718166</v>
+        <v>11134079</v>
       </c>
       <c r="SN47" t="n">
-        <v>12690070</v>
+        <v>12954016</v>
       </c>
       <c r="SO47" t="n">
-        <v>13746801</v>
+        <v>13747069</v>
       </c>
       <c r="SP47" t="n">
-        <v>17089589</v>
+        <v>17097654</v>
       </c>
       <c r="SQ47" t="n">
-        <v>11683948</v>
+        <v>11630149</v>
       </c>
       <c r="SR47" t="n">
-        <v>17312342</v>
+        <v>17277017</v>
       </c>
       <c r="SS47" t="n">
-        <v>15651290</v>
+        <v>15593544</v>
       </c>
       <c r="ST47" t="n">
-        <v>19861481</v>
+        <v>19826787</v>
       </c>
       <c r="SU47" t="n">
-        <v>14980277</v>
+        <v>14980268</v>
       </c>
       <c r="SV47" t="n">
-        <v>16835339</v>
+        <v>16835058</v>
       </c>
       <c r="SW47" t="n">
-        <v>15146267</v>
+        <v>15145855</v>
       </c>
       <c r="SX47" t="n">
-        <v>14765407</v>
+        <v>14767542</v>
+      </c>
+      <c r="SY47" t="n">
+        <v>16818642</v>
+      </c>
+      <c r="SZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -76273,6 +77989,42 @@
       <c r="SX48" t="n">
         <v>1516226</v>
       </c>
+      <c r="SY48" t="n">
+        <v>1524379</v>
+      </c>
+      <c r="SZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -77798,25 +79550,25 @@
         <v>5193298</v>
       </c>
       <c r="SM49" t="n">
-        <v>3127091</v>
+        <v>3040083</v>
       </c>
       <c r="SN49" t="n">
-        <v>2352241</v>
+        <v>2350849</v>
       </c>
       <c r="SO49" t="n">
-        <v>3172824</v>
+        <v>3178272</v>
       </c>
       <c r="SP49" t="n">
-        <v>2760252</v>
+        <v>2758598</v>
       </c>
       <c r="SQ49" t="n">
-        <v>6878239</v>
+        <v>6870801</v>
       </c>
       <c r="SR49" t="n">
-        <v>4139441</v>
+        <v>4135945</v>
       </c>
       <c r="SS49" t="n">
-        <v>2546976</v>
+        <v>2542123</v>
       </c>
       <c r="ST49" t="n">
         <v>2024398</v>
@@ -77831,7 +79583,43 @@
         <v>3220704</v>
       </c>
       <c r="SX49" t="n">
-        <v>4491068</v>
+        <v>4491204</v>
+      </c>
+      <c r="SY49" t="n">
+        <v>4590607</v>
+      </c>
+      <c r="SZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ49" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/158/MOF/TRADE/COUN/Central and Eastern Europe.xlsx
+++ b/data/158/MOF/TRADE/COUN/Central and Eastern Europe.xlsx
@@ -4577,7 +4577,7 @@
         <v>146532299</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>176559660</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>260275280</v>
       </c>
       <c r="SY3" t="n">
-        <v>253765518</v>
+        <v>254203411</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>288745279</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>86297</v>
       </c>
       <c r="SZ4" t="n">
-        <v>0</v>
+        <v>90413</v>
       </c>
       <c r="TA4" t="n">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>37320</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>65608</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>54169</v>
       </c>
       <c r="SZ6" t="n">
-        <v>0</v>
+        <v>37007</v>
       </c>
       <c r="TA6" t="n">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>71562</v>
       </c>
       <c r="SZ7" t="n">
-        <v>0</v>
+        <v>94453</v>
       </c>
       <c r="TA7" t="n">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>558363</v>
       </c>
       <c r="SZ8" t="n">
-        <v>0</v>
+        <v>1663700</v>
       </c>
       <c r="TA8" t="n">
         <v>0</v>
@@ -15749,7 +15749,7 @@
         <v>485014</v>
       </c>
       <c r="SZ9" t="n">
-        <v>0</v>
+        <v>88516</v>
       </c>
       <c r="TA9" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>2985577</v>
       </c>
       <c r="SZ10" t="n">
-        <v>0</v>
+        <v>4540862</v>
       </c>
       <c r="TA10" t="n">
         <v>0</v>
@@ -18938,10 +18938,10 @@
         <v>8315837</v>
       </c>
       <c r="SY11" t="n">
-        <v>7769985</v>
+        <v>7768869</v>
       </c>
       <c r="SZ11" t="n">
-        <v>0</v>
+        <v>16510506</v>
       </c>
       <c r="TA11" t="n">
         <v>0</v>
@@ -20537,7 +20537,7 @@
         <v>98266</v>
       </c>
       <c r="SZ12" t="n">
-        <v>0</v>
+        <v>311208</v>
       </c>
       <c r="TA12" t="n">
         <v>0</v>
@@ -22133,7 +22133,7 @@
         <v>10685</v>
       </c>
       <c r="SZ13" t="n">
-        <v>0</v>
+        <v>9086</v>
       </c>
       <c r="TA13" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>283459</v>
       </c>
       <c r="SZ14" t="n">
-        <v>0</v>
+        <v>442867</v>
       </c>
       <c r="TA14" t="n">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>87984</v>
       </c>
       <c r="SZ16" t="n">
-        <v>0</v>
+        <v>60472</v>
       </c>
       <c r="TA16" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="SZ17" t="n">
-        <v>0</v>
+        <v>2229</v>
       </c>
       <c r="TA17" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>753288</v>
       </c>
       <c r="SZ18" t="n">
-        <v>0</v>
+        <v>1924613</v>
       </c>
       <c r="TA18" t="n">
         <v>0</v>
@@ -31709,7 +31709,7 @@
         <v>136536</v>
       </c>
       <c r="SZ19" t="n">
-        <v>0</v>
+        <v>206557</v>
       </c>
       <c r="TA19" t="n">
         <v>0</v>
@@ -33305,7 +33305,7 @@
         <v>28355295</v>
       </c>
       <c r="SZ20" t="n">
-        <v>0</v>
+        <v>31393342</v>
       </c>
       <c r="TA20" t="n">
         <v>0</v>
@@ -34898,10 +34898,10 @@
         <v>12260502</v>
       </c>
       <c r="SY21" t="n">
-        <v>14036683</v>
+        <v>14043850</v>
       </c>
       <c r="SZ21" t="n">
-        <v>0</v>
+        <v>11777474</v>
       </c>
       <c r="TA21" t="n">
         <v>0</v>
@@ -36497,7 +36497,7 @@
         <v>68679807</v>
       </c>
       <c r="SZ22" t="n">
-        <v>0</v>
+        <v>81713211</v>
       </c>
       <c r="TA22" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>191100776</v>
       </c>
       <c r="SY23" t="n">
-        <v>172882885</v>
+        <v>173339212</v>
       </c>
       <c r="SZ23" t="n">
-        <v>0</v>
+        <v>206732958</v>
       </c>
       <c r="TA23" t="n">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>11799701</v>
       </c>
       <c r="SZ26" t="n">
-        <v>0</v>
+        <v>15473163</v>
       </c>
       <c r="TA26" t="n">
         <v>0</v>
@@ -44474,10 +44474,10 @@
         <v>11988528</v>
       </c>
       <c r="SY27" t="n">
-        <v>9127090</v>
+        <v>9133455</v>
       </c>
       <c r="SZ27" t="n">
-        <v>0</v>
+        <v>8602568</v>
       </c>
       <c r="TA27" t="n">
         <v>0</v>
@@ -46073,7 +46073,7 @@
         <v>25902</v>
       </c>
       <c r="SZ28" t="n">
-        <v>0</v>
+        <v>20700</v>
       </c>
       <c r="TA28" t="n">
         <v>0</v>
@@ -47666,10 +47666,10 @@
         <v>299480</v>
       </c>
       <c r="SY29" t="n">
-        <v>407239</v>
+        <v>407234</v>
       </c>
       <c r="SZ29" t="n">
-        <v>0</v>
+        <v>706147</v>
       </c>
       <c r="TA29" t="n">
         <v>0</v>
@@ -49265,7 +49265,7 @@
         <v>3173808</v>
       </c>
       <c r="SZ30" t="n">
-        <v>0</v>
+        <v>4313362</v>
       </c>
       <c r="TA30" t="n">
         <v>0</v>
@@ -50858,10 +50858,10 @@
         <v>8432901</v>
       </c>
       <c r="SY31" t="n">
-        <v>7076156</v>
+        <v>7082543</v>
       </c>
       <c r="SZ31" t="n">
-        <v>0</v>
+        <v>12554705</v>
       </c>
       <c r="TA31" t="n">
         <v>0</v>
@@ -52457,7 +52457,7 @@
         <v>1427424</v>
       </c>
       <c r="SZ32" t="n">
-        <v>0</v>
+        <v>2358907</v>
       </c>
       <c r="TA32" t="n">
         <v>0</v>
@@ -54050,10 +54050,10 @@
         <v>1106345</v>
       </c>
       <c r="SY33" t="n">
-        <v>1042291</v>
+        <v>1042441</v>
       </c>
       <c r="SZ33" t="n">
-        <v>0</v>
+        <v>1511790</v>
       </c>
       <c r="TA33" t="n">
         <v>0</v>
@@ -55649,7 +55649,7 @@
         <v>1867772</v>
       </c>
       <c r="SZ34" t="n">
-        <v>0</v>
+        <v>2173954</v>
       </c>
       <c r="TA34" t="n">
         <v>0</v>
@@ -57245,7 +57245,7 @@
         <v>3126069</v>
       </c>
       <c r="SZ35" t="n">
-        <v>0</v>
+        <v>2167904</v>
       </c>
       <c r="TA35" t="n">
         <v>0</v>
@@ -58841,7 +58841,7 @@
         <v>393149</v>
       </c>
       <c r="SZ36" t="n">
-        <v>0</v>
+        <v>454745</v>
       </c>
       <c r="TA36" t="n">
         <v>0</v>
@@ -60437,7 +60437,7 @@
         <v>1646674</v>
       </c>
       <c r="SZ37" t="n">
-        <v>0</v>
+        <v>1357646</v>
       </c>
       <c r="TA37" t="n">
         <v>0</v>
@@ -62033,7 +62033,7 @@
         <v>884422</v>
       </c>
       <c r="SZ38" t="n">
-        <v>0</v>
+        <v>1139709</v>
       </c>
       <c r="TA38" t="n">
         <v>0</v>
@@ -63626,10 +63626,10 @@
         <v>1196326</v>
       </c>
       <c r="SY39" t="n">
-        <v>1548009</v>
+        <v>1522114</v>
       </c>
       <c r="SZ39" t="n">
-        <v>0</v>
+        <v>1167404</v>
       </c>
       <c r="TA39" t="n">
         <v>0</v>
@@ -65225,7 +65225,7 @@
         <v>3416541</v>
       </c>
       <c r="SZ40" t="n">
-        <v>0</v>
+        <v>7827308</v>
       </c>
       <c r="TA40" t="n">
         <v>0</v>
@@ -66821,7 +66821,7 @@
         <v>12619431</v>
       </c>
       <c r="SZ41" t="n">
-        <v>0</v>
+        <v>10110665</v>
       </c>
       <c r="TA41" t="n">
         <v>0</v>
@@ -68417,7 +68417,7 @@
         <v>318699</v>
       </c>
       <c r="SZ42" t="n">
-        <v>0</v>
+        <v>302188</v>
       </c>
       <c r="TA42" t="n">
         <v>0</v>
@@ -70013,7 +70013,7 @@
         <v>189002</v>
       </c>
       <c r="SZ43" t="n">
-        <v>0</v>
+        <v>134556</v>
       </c>
       <c r="TA43" t="n">
         <v>0</v>
@@ -71609,7 +71609,7 @@
         <v>26609</v>
       </c>
       <c r="SZ44" t="n">
-        <v>0</v>
+        <v>154244</v>
       </c>
       <c r="TA44" t="n">
         <v>0</v>
@@ -73205,7 +73205,7 @@
         <v>143638</v>
       </c>
       <c r="SZ45" t="n">
-        <v>0</v>
+        <v>162404</v>
       </c>
       <c r="TA45" t="n">
         <v>0</v>
@@ -74801,7 +74801,7 @@
         <v>19731388</v>
       </c>
       <c r="SZ46" t="n">
-        <v>0</v>
+        <v>18962005</v>
       </c>
       <c r="TA46" t="n">
         <v>0</v>
@@ -76394,10 +76394,10 @@
         <v>14767542</v>
       </c>
       <c r="SY47" t="n">
-        <v>16818642</v>
+        <v>16807141</v>
       </c>
       <c r="SZ47" t="n">
-        <v>0</v>
+        <v>11700274</v>
       </c>
       <c r="TA47" t="n">
         <v>0</v>
@@ -77993,7 +77993,7 @@
         <v>1524379</v>
       </c>
       <c r="SZ48" t="n">
-        <v>0</v>
+        <v>1201680</v>
       </c>
       <c r="TA48" t="n">
         <v>0</v>
@@ -79586,10 +79586,10 @@
         <v>4491204</v>
       </c>
       <c r="SY49" t="n">
-        <v>4590607</v>
+        <v>4590621</v>
       </c>
       <c r="SZ49" t="n">
-        <v>0</v>
+        <v>3081829</v>
       </c>
       <c r="TA49" t="n">
         <v>0</v>
